--- a/biology/Biochimie/Octose/Octose.xlsx
+++ b/biology/Biochimie/Octose/Octose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un octose est un ose possédant huit atomes de carbone. 
 À cette famille d'ose appartiennent :
-l'octose dérivé[1], qui est un monosaccharide obtenu depuis un octose.
-l'aldooctose[2], auquel un groupe aldéhyde se trouve en position 1 de la molécule.
-le ketooctose[3], auquel un groupe cétone se trouve en position 2 de la molécule.
-Des deux dernières molécules dérivent également des monosaccharides. Pour l'aldooctose par exemple, la molécule parente α-D-Ko est présente parfois dans les lipopolysaccharides constituant la paroi des bactéries Gram négatives - par combinaison avec sa dérivée 3-deoxy (α-D-Kdo)[4].
+l'octose dérivé, qui est un monosaccharide obtenu depuis un octose.
+l'aldooctose, auquel un groupe aldéhyde se trouve en position 1 de la molécule.
+le ketooctose, auquel un groupe cétone se trouve en position 2 de la molécule.
+Des deux dernières molécules dérivent également des monosaccharides. Pour l'aldooctose par exemple, la molécule parente α-D-Ko est présente parfois dans les lipopolysaccharides constituant la paroi des bactéries Gram négatives - par combinaison avec sa dérivée 3-deoxy (α-D-Kdo).
 </t>
         </is>
       </c>
